--- a/media/output/result/bpic2015_5_f2_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/bpic2015_5_f2_complex_evaluation_weighted_edit_distance.xlsx
@@ -795,25 +795,25 @@
         <v>208</v>
       </c>
       <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>55</v>
+      </c>
+      <c r="F13" t="n">
         <v>153</v>
       </c>
-      <c r="D13" t="n">
-        <v>55</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
-        <v>0.7355769230769231</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8476454293628809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">

--- a/media/output/result/bpic2015_5_f2_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/bpic2015_5_f2_complex_evaluation_weighted_edit_distance.xlsx
@@ -795,25 +795,25 @@
         <v>208</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E13" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.7355769230769231</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.8476454293628809</v>
       </c>
     </row>
     <row r="14">
